--- a/Data/BE_Tmean.xlsx
+++ b/Data/BE_Tmean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C6569F-1D65-441C-A828-C9C6C4D4879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18796341-CBA9-4EC5-A0A3-7E3B7032E3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A90FBD-C307-4828-AB6A-08B16A5AC3C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Depth</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>T_mean</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -489,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AD947D-EE24-4D89-839B-CE0080C40D72}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="M18:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +543,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -585,8 +591,12 @@
         <f>AVERAGE(B2:M2)</f>
         <v>9.7583333333333329</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>_xlfn.STDEV.S(B2:M2)</f>
+        <v>0.68815739919048036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -630,8 +640,12 @@
         <f t="shared" ref="N3:N15" si="0">AVERAGE(B3:M3)</f>
         <v>9.6750000000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O15" si="1">_xlfn.STDEV.S(B3:M3)</f>
+        <v>0.66349624921869188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -675,8 +689,12 @@
         <f t="shared" si="0"/>
         <v>9.6166666666666671</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0.62060576467795991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -720,8 +738,12 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.56246211993665518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -765,8 +787,12 @@
         <f t="shared" si="0"/>
         <v>9.4749999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.54460160584679618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -810,8 +836,12 @@
         <f t="shared" si="0"/>
         <v>9.4166666666666661</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.54076264888048853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -855,8 +885,12 @@
         <f t="shared" si="0"/>
         <v>9.3833333333333329</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.54578272955342577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -900,8 +934,12 @@
         <f t="shared" si="0"/>
         <v>9.3249999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.5395705362937856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -945,8 +983,12 @@
         <f t="shared" si="0"/>
         <v>9.2999999999999989</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.55432186252458704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>12</v>
       </c>
@@ -990,8 +1032,12 @@
         <f t="shared" si="0"/>
         <v>9.3249999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.5429297627435129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>14</v>
       </c>
@@ -1035,8 +1081,12 @@
         <f t="shared" si="0"/>
         <v>9.2833333333333332</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.52368160578964795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>16</v>
       </c>
@@ -1080,8 +1130,12 @@
         <f t="shared" si="0"/>
         <v>9.1833333333333336</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.49328828623162485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -1125,8 +1179,12 @@
         <f t="shared" si="0"/>
         <v>9.1641666666666666</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.49096303014554682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -1169,6 +1227,10 @@
       <c r="N15">
         <f t="shared" si="0"/>
         <v>9.0808333333333326</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.59363990207307749</v>
       </c>
     </row>
   </sheetData>
